--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400210.293187677</v>
+        <v>-402911.5098391343</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>232.2791855053264</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>86.52301431261418</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>126.8657060089147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.68840376188981</v>
+        <v>74.92010832784469</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154324</v>
+        <v>182.7801931252179</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863662</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5.811492208585626</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154333</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>138.5445421428698</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951723</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713678</v>
+        <v>4.360182258713593</v>
       </c>
       <c r="S6" t="n">
-        <v>48.30598136501757</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>72.99502821083904</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643323</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.5155126857011</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>316.7682943811079</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>66.61386885605867</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>109.502252246449</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1309,7 +1309,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>56.36022627790751</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>183.0725085440194</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>311.9076422753264</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>32.08439058953147</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>184.7846208065606</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881291</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946148</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.3613954702492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.3471808964321</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272856</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716356</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.3999237630434</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>93.62264337260675</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>94.80184639741283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>252.4188248364708</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8988206105698</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>100.7815116657747</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.11763046889868</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>160.1816324288063</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.0757400165026</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176086</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,13 +4192,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>213.7697789119604</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044907</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4367,13 +4367,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.0846976543626</v>
+        <v>208.9782564443871</v>
       </c>
       <c r="C3" t="n">
-        <v>167.6316683732355</v>
+        <v>208.9782564443871</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>678.083375646678</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V3" t="n">
-        <v>678.083375646678</v>
+        <v>671.0671133781216</v>
       </c>
       <c r="W3" t="n">
-        <v>678.083375646678</v>
+        <v>416.8297566499199</v>
       </c>
       <c r="X3" t="n">
-        <v>470.2318754411451</v>
+        <v>208.9782564443871</v>
       </c>
       <c r="Y3" t="n">
-        <v>342.0846976543626</v>
+        <v>208.9782564443871</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.02479096768596</v>
+        <v>220.1584052007803</v>
       </c>
       <c r="C4" t="n">
-        <v>45.02479096768596</v>
+        <v>220.1584052007803</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092334</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>493.8069210092334</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>493.8069210092334</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="W4" t="n">
-        <v>493.8069210092334</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="X4" t="n">
-        <v>265.8173701112161</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.02479096768596</v>
+        <v>401.80687003102</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>743.8751714405668</v>
+        <v>328.1691952874816</v>
       </c>
       <c r="C5" t="n">
-        <v>743.8751714405668</v>
+        <v>328.1691952874816</v>
       </c>
       <c r="D5" t="n">
-        <v>743.8751714405668</v>
+        <v>328.1691952874816</v>
       </c>
       <c r="E5" t="n">
-        <v>743.8751714405668</v>
+        <v>328.1691952874816</v>
       </c>
       <c r="F5" t="n">
-        <v>356.3118100108371</v>
+        <v>143.5427375852413</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797564</v>
+        <v>130.9983022541605</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523459</v>
+        <v>130.9983022541605</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523459</v>
+        <v>30.69501822523466</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275164</v>
+        <v>93.76641159275187</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245569</v>
+        <v>239.0325989245575</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825647</v>
+        <v>456.1499114825658</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748883</v>
+        <v>729.4041931748899</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202383</v>
+        <v>1011.693823202385</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798417</v>
+        <v>1264.91665479842</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189415</v>
+        <v>1446.535482189418</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261733</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261733</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518257</v>
+        <v>1534.750911261733</v>
       </c>
       <c r="T5" t="n">
-        <v>1384.126479368171</v>
+        <v>1322.152679850808</v>
       </c>
       <c r="U5" t="n">
-        <v>1130.475011504689</v>
+        <v>1068.501211987326</v>
       </c>
       <c r="V5" t="n">
-        <v>1130.475011504689</v>
+        <v>1068.501211987326</v>
       </c>
       <c r="W5" t="n">
-        <v>1130.475011504689</v>
+        <v>715.7325567172122</v>
       </c>
       <c r="X5" t="n">
-        <v>1130.475011504689</v>
+        <v>715.7325567172122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.475011504689</v>
+        <v>328.1691952874816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>674.429178281594</v>
+        <v>625.3454228275511</v>
       </c>
       <c r="C6" t="n">
-        <v>499.976149000467</v>
+        <v>485.4014408650564</v>
       </c>
       <c r="D6" t="n">
-        <v>351.0417393392157</v>
+        <v>336.4670312038052</v>
       </c>
       <c r="E6" t="n">
-        <v>351.0417393392157</v>
+        <v>177.2295761983497</v>
       </c>
       <c r="F6" t="n">
-        <v>204.5071813661007</v>
+        <v>30.69501822523466</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523466</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523466</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523459</v>
+        <v>30.69501822523466</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563456</v>
+        <v>70.78704471034462</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169454</v>
+        <v>180.9835516516557</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482979</v>
+        <v>375.4788954830085</v>
       </c>
       <c r="M6" t="n">
-        <v>600.4576725190444</v>
+        <v>621.8026561537554</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7095350912675</v>
+        <v>889.0545187259788</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891495</v>
+        <v>1111.317965891498</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090184</v>
+        <v>1270.370911090187</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261733</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757978</v>
+        <v>1530.346686757982</v>
       </c>
       <c r="S6" t="n">
-        <v>1481.552766187253</v>
+        <v>1530.346686757982</v>
       </c>
       <c r="T6" t="n">
-        <v>1285.648123738938</v>
+        <v>1530.346686757982</v>
       </c>
       <c r="U6" t="n">
-        <v>1285.648123738938</v>
+        <v>1530.346686757982</v>
       </c>
       <c r="V6" t="n">
-        <v>1050.496015507195</v>
+        <v>1295.194578526239</v>
       </c>
       <c r="W6" t="n">
-        <v>1050.496015507195</v>
+        <v>1040.957221798038</v>
       </c>
       <c r="X6" t="n">
-        <v>842.6445153016621</v>
+        <v>833.105721592505</v>
       </c>
       <c r="Y6" t="n">
-        <v>842.6445153016621</v>
+        <v>625.3454228275511</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.69501822523459</v>
+        <v>258.600681388712</v>
       </c>
       <c r="C7" t="n">
-        <v>30.69501822523459</v>
+        <v>258.600681388712</v>
       </c>
       <c r="D7" t="n">
-        <v>30.69501822523459</v>
+        <v>258.600681388712</v>
       </c>
       <c r="E7" t="n">
-        <v>30.69501822523459</v>
+        <v>184.8683296605917</v>
       </c>
       <c r="F7" t="n">
-        <v>30.69501822523459</v>
+        <v>184.8683296605917</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523459</v>
+        <v>184.8683296605917</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523459</v>
+        <v>32.6194991470966</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523459</v>
+        <v>32.6194991470966</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523459</v>
+        <v>30.69501822523466</v>
       </c>
       <c r="K7" t="n">
-        <v>157.432275622327</v>
+        <v>157.4322756223273</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830396</v>
+        <v>375.13876558304</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388163</v>
+        <v>615.0688576388169</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974838</v>
+        <v>854.7285647974846</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891675</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934025</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495187</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495187</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495186</v>
+        <v>1030.691890529577</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495186</v>
+        <v>1030.691890529577</v>
       </c>
       <c r="U7" t="n">
-        <v>1023.57880650963</v>
+        <v>1030.691890529577</v>
       </c>
       <c r="V7" t="n">
-        <v>768.8943183037427</v>
+        <v>776.0074023236899</v>
       </c>
       <c r="W7" t="n">
-        <v>479.477148266782</v>
+        <v>486.5902322867293</v>
       </c>
       <c r="X7" t="n">
-        <v>251.4875973687647</v>
+        <v>258.600681388712</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.69501822523459</v>
+        <v>258.600681388712</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339.947027944958</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.947027944958</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D8" t="n">
-        <v>981.6813293382077</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>595.8930767399634</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>184.9071719503558</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,7 +4799,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X8" t="n">
-        <v>1726.54686800908</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="Y8" t="n">
-        <v>1726.54686800908</v>
+        <v>1622.544763526515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.3487252516918</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="C10" t="n">
-        <v>732.3487252516918</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288652</v>
+        <v>1067.419780280234</v>
       </c>
       <c r="W10" t="n">
-        <v>732.3487252516918</v>
+        <v>1067.419780280234</v>
       </c>
       <c r="X10" t="n">
-        <v>732.3487252516918</v>
+        <v>1067.419780280234</v>
       </c>
       <c r="Y10" t="n">
-        <v>732.3487252516918</v>
+        <v>846.6272011367042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2040.546330724785</v>
+        <v>1560.571436588851</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784373</v>
+        <v>1191.60891964844</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1191.60891964844</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793785</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
         <v>695.1615405656962</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796037</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377401</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3487.982963575361</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>3156.920076231791</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2804.151420961676</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2430.685662700596</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.546330724785</v>
+        <v>1947.171276652973</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>426.0346777902291</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>844.7317184481807</v>
+        <v>889.4740370626168</v>
       </c>
       <c r="M12" t="n">
-        <v>1352.688284404709</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1888.497594105919</v>
+        <v>1933.239912720355</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.438638438442</v>
+        <v>2401.180957052878</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2401.180957052878</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.9718320326392</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="C13" t="n">
-        <v>245.0356491047323</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>245.0356491047323</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0356491047323</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047324</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344806</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2104.954493399847</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1916.838645933143</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1695.947313367583</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1406.855620317034</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1152.171132111147</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>862.7539620741867</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>634.7644111761693</v>
+        <v>627.8918034720837</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.9718320326392</v>
+        <v>407.0992243285535</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933871</v>
+        <v>983.3556038098232</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138409</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>806.8386896933871</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958764</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267664</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261161</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5738,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.2677182139838</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036841</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270445</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>880.9161830442235</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,28 +5984,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1880.464695940366</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1625.780207734479</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192667</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6242,31 +6242,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.580907655971</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239597</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536384</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2049.058935487114</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.983708831312</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1505.299220625426</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625426</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>701.4712640439267</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>532.5350811160198</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.901858915714</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.912308017696</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.1197288741664</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647279</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C40" t="n">
-        <v>631.564586536821</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949676</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,13 +7403,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7421,31 +7421,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>941.1773875143808</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.644273983533</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E46" t="n">
-        <v>549.614540988804</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038343</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1539.502487994263</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1250.085317957303</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636977</v>
+        <v>34.4393943863696</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21.56058953000995</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>21.56058953000851</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184736</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>67.88649391566753</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>74.33029638072719</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.72891620952092</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.92503458247657</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>114.1584408891663</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.2232578818456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.89964020219573</v>
+        <v>63.3683537222875</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>117.1847295890514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>123.7828069546815</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.782806954682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>33.76564955277333</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4.506629716718493</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>185.7414866708163</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>68.49784254931367</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>126.0028419604378</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>38.36786441186761</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="C2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="D2" t="n">
         <v>287364.6194524992</v>
       </c>
-      <c r="D2" t="n">
-        <v>287364.6194524994</v>
-      </c>
       <c r="E2" t="n">
-        <v>256406.2354960386</v>
+        <v>256406.2354960387</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657084</v>
+        <v>132804.2190657094</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929362</v>
+        <v>265413.0723929353</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545774</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417455</v>
+        <v>30877.4292641748</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204953</v>
+        <v>65018.34502049509</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273084</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202355</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947645</v>
+        <v>214511.7974947643</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
@@ -26436,28 +26436,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="J4" t="n">
-        <v>10557.08828678117</v>
-      </c>
       <c r="K4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
+        <v>10557.08828678124</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="P4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10557.08828678123</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667504</v>
+        <v>72593.65038667512</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-706103.8303178221</v>
       </c>
       <c r="C6" t="n">
-        <v>-132545.0474946488</v>
+        <v>-132545.0474946495</v>
       </c>
       <c r="D6" t="n">
-        <v>-210120.7725026228</v>
+        <v>-210120.7725026221</v>
       </c>
       <c r="E6" t="n">
-        <v>-152760.0766530591</v>
+        <v>-152981.2079670336</v>
       </c>
       <c r="F6" t="n">
-        <v>-18486.57698961496</v>
+        <v>-18521.31491505097</v>
       </c>
       <c r="G6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.953855378</v>
       </c>
       <c r="H6" t="n">
-        <v>170821.6917808138</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="I6" t="n">
-        <v>170821.691780814</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="J6" t="n">
-        <v>101822.5373616998</v>
+        <v>101787.7994362642</v>
       </c>
       <c r="K6" t="n">
-        <v>139944.2625166394</v>
+        <v>139909.5245912035</v>
       </c>
       <c r="L6" t="n">
-        <v>105803.3467603186</v>
+        <v>105768.608834883</v>
       </c>
       <c r="M6" t="n">
-        <v>88924.28806808306</v>
+        <v>88889.55014264726</v>
       </c>
       <c r="N6" t="n">
-        <v>120982.1176487904</v>
+        <v>120947.3797233545</v>
       </c>
       <c r="O6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.953855378</v>
       </c>
       <c r="P6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.9538553781</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169576</v>
+        <v>717.3319511695767</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154324</v>
+        <v>383.6877278154333</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000976</v>
+        <v>103.2769374000984</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479631</v>
+        <v>216.7329409479624</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139262</v>
+        <v>119.9738478139271</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846065</v>
+        <v>256.8971042846055</v>
       </c>
       <c r="E4" t="n">
         <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139262</v>
+        <v>119.9738478139271</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846065</v>
+        <v>256.8971042846055</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139262</v>
+        <v>119.9738478139271</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846065</v>
+        <v>256.8971042846055</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>180.5549891403836</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>116.9617832120865</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>60.92205125202457</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>78.81698976838965</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>124.9270692563225</v>
+        <v>73.69536469036767</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792627907</v>
+        <v>224.0958526164935</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863674</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>204.6607568882299</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840620309</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>34.16395684544597</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>97.33388804333224</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951718</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>94.71774810482825</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>73.43893443573013</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015376</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643408</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>77.73295942969111</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>48.50459738989963</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>344.9338339168953</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>39.11322077176335</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>195.7774170459205</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.603837063157699e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.25715790871557e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.700062395888381e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365127</v>
+        <v>2.88374653736513</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579062</v>
+        <v>29.53316922579065</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817692</v>
+        <v>111.1756383817693</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756937</v>
+        <v>244.7543826756939</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023596</v>
+        <v>366.8233736023599</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952477</v>
+        <v>455.0768316952481</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791148</v>
+        <v>506.3606591791153</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284035</v>
+        <v>514.554104028404</v>
       </c>
       <c r="O5" t="n">
-        <v>485.878849397479</v>
+        <v>485.8788493974794</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562773</v>
+        <v>414.6863567562777</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868886</v>
+        <v>311.4121838868889</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277624</v>
+        <v>181.1461434277625</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020791</v>
+        <v>65.71337422020797</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.62360046731586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892102</v>
+        <v>0.2306997229892103</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270409</v>
+        <v>1.54294042327041</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.90155619316423</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189785</v>
+        <v>53.1231680818979</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.7740335862628</v>
       </c>
       <c r="K6" t="n">
-        <v>249.15104194538</v>
+        <v>249.1510419453803</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438666</v>
+        <v>335.014323043867</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874188</v>
+        <v>390.9459133874192</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189121</v>
+        <v>401.2930884189125</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348678</v>
+        <v>367.1047769348681</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190661</v>
+        <v>294.6339480190663</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739561</v>
+        <v>196.9549915739562</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392946</v>
+        <v>95.79765189392954</v>
       </c>
       <c r="S6" t="n">
-        <v>28.659441633992</v>
+        <v>28.65944163399203</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989057</v>
+        <v>6.219132670989064</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730533</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141859</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907944</v>
+        <v>11.50083029907945</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572062</v>
+        <v>38.90055892572066</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402937</v>
+        <v>91.45394400402945</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401177</v>
+        <v>150.2869235401178</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154545</v>
+        <v>192.3155201545452</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773278</v>
+        <v>202.769751377328</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022538</v>
+        <v>197.948339902254</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669602</v>
+        <v>182.8373307669603</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.4489225960663</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.317124626606</v>
+        <v>108.3171246266061</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565117</v>
+        <v>58.16268574565122</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101765</v>
+        <v>22.54303853101767</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060665</v>
+        <v>5.526983886060671</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864689</v>
+        <v>0.07055724109864696</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
         <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495314</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>372.3804145331346</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>299.7767623746046</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
@@ -31926,28 +31926,28 @@
         <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523455</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>414.9172504145579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572287</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900742</v>
+        <v>63.70847814900765</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557379</v>
+        <v>146.7335225573794</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252605</v>
+        <v>219.3104167252609</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518421</v>
+        <v>276.0144259518426</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318125</v>
+        <v>285.1410404318131</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757922</v>
+        <v>255.7806379757927</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010078</v>
+        <v>183.4533610010082</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243913</v>
+        <v>89.10649401243941</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959592</v>
+        <v>40.49699644960602</v>
       </c>
       <c r="K6" t="n">
-        <v>111.309602971021</v>
+        <v>111.3096029710213</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639924</v>
+        <v>196.4599432639928</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654005</v>
+        <v>248.8118794654009</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355789</v>
+        <v>269.9513763355792</v>
       </c>
       <c r="O6" t="n">
-        <v>246.0691220204319</v>
+        <v>224.5085324904237</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047358</v>
+        <v>160.6595406047361</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237836</v>
+        <v>267.0505052237838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.017431714235</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148612</v>
+        <v>219.9055454148613</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391684</v>
+        <v>242.3536283391686</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814824</v>
+        <v>242.0805122814826</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809999</v>
+        <v>207.422458681</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.7274818609598</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491159</v>
+        <v>22.15508137491169</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420058</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5389755587756</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>159.794988288583</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655345</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790109</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>283.5755383312245</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394598</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>254.8360547723481</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
